--- a/docs/StructureDefinition-GimbalScreening.xlsx
+++ b/docs/StructureDefinition-GimbalScreening.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6350" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6349" uniqueCount="408">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T20:45:50-06:00</t>
+    <t>2025-05-21T00:44:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -879,22 +879,10 @@
     <t>Bundle.entry:contraindicatedConditions.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Condition {https://mitre.org/fhir/space-health/StructureDefinition/GimbalScreeningCondition}
+    <t xml:space="preserve">Condition
 </t>
   </si>
   <si>
-    <t>Detailed information about conditions, problems or diagnoses</t>
-  </si>
-  <si>
-    <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.</t>
-  </si>
-  <si>
-    <t>PPR message</t>
-  </si>
-  <si>
-    <t>Observation[classCode=OBS, moodCode=EVN, code=ASSERTION, value&lt;Diagnosis]</t>
-  </si>
-  <si>
     <t>Bundle.entry:contraindicatedConditions.search</t>
   </si>
   <si>
@@ -994,19 +982,10 @@
     <t>Bundle.entry:contraindicatedProcedures.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Procedure {https://mitre.org/fhir/space-health/StructureDefinition/GimbalScreeningProcedure}
+    <t xml:space="preserve">Procedure
 </t>
   </si>
   <si>
-    <t>An action that is being or was performed on a patient</t>
-  </si>
-  <si>
-    <t>An action that is or was performed on or for a patient. This can be a physical intervention like an operation, or less invasive like long term services, counseling, or hypnotherapy.</t>
-  </si>
-  <si>
-    <t>Procedure[moodCode=EVN]</t>
-  </si>
-  <si>
     <t>Bundle.entry:contraindicatedProcedures.search</t>
   </si>
   <si>
@@ -1106,19 +1085,10 @@
     <t>Bundle.entry:contraindicatedMedications.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Medication {https://mitre.org/fhir/space-health/StructureDefinition/GimbalScreeningMedication}
+    <t xml:space="preserve">Medication
 </t>
   </si>
   <si>
-    <t>Definition of a Medication</t>
-  </si>
-  <si>
-    <t>This resource is primarily used for the identification and definition of a medication for the purposes of prescribing, dispensing, and administering a medication as well as for making statements about medication use.</t>
-  </si>
-  <si>
-    <t>ManufacturedProduct[classCode=ADMM]</t>
-  </si>
-  <si>
     <t>Bundle.entry:contraindicatedMedications.search</t>
   </si>
   <si>
@@ -1218,27 +1188,8 @@
     <t>Bundle.entry:contraindicatedObservations.resource</t>
   </si>
   <si>
-    <t>Vital Signs
-MeasurementResultsTests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observation {https://mitre.org/fhir/space-health/StructureDefinition/GimbalScreeningObservation}
+    <t xml:space="preserve">Observation
 </t>
-  </si>
-  <si>
-    <t>Measurements and simple assertions</t>
-  </si>
-  <si>
-    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
-  </si>
-  <si>
-    <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
-  </si>
-  <si>
-    <t>OBX</t>
-  </si>
-  <si>
-    <t>Observation[classCode=OBS, moodCode=EVN]</t>
   </si>
   <si>
     <t>Bundle.entry:contraindicatedObservations.search</t>
@@ -1664,14 +1615,14 @@
     <col min="1" max="1" width="54.9453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.46875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="20.87109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="17.796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.65625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.37109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1697,7 +1648,7 @@
     <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="22.2109375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="65.01171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="19.5625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="35.9375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="28.5078125" customWidth="true" bestFit="true"/>
   </cols>
@@ -7855,16 +7806,16 @@
         <v>20</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>274</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>275</v>
+        <v>194</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>276</v>
+        <v>195</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7930,10 +7881,10 @@
         <v>20</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>277</v>
+        <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>278</v>
+        <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
@@ -7944,7 +7895,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>196</v>
@@ -8056,7 +8007,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>200</v>
@@ -8168,7 +8119,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>201</v>
@@ -8282,7 +8233,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>202</v>
@@ -8398,7 +8349,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>203</v>
@@ -8512,7 +8463,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>209</v>
@@ -8626,7 +8577,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>214</v>
@@ -8738,7 +8689,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>218</v>
@@ -8850,7 +8801,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>219</v>
@@ -8964,7 +8915,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>220</v>
@@ -9080,7 +9031,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>221</v>
@@ -9192,7 +9143,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>226</v>
@@ -9306,7 +9257,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>230</v>
@@ -9418,7 +9369,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>233</v>
@@ -9530,7 +9481,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>235</v>
@@ -9642,7 +9593,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>238</v>
@@ -9754,7 +9705,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>241</v>
@@ -9866,7 +9817,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>245</v>
@@ -9978,7 +9929,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>246</v>
@@ -10092,7 +10043,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>247</v>
@@ -10208,7 +10159,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>248</v>
@@ -10320,7 +10271,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>251</v>
@@ -10432,7 +10383,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>254</v>
@@ -10546,7 +10497,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>258</v>
@@ -10660,7 +10611,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>262</v>
@@ -10774,13 +10725,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>174</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>20</v>
@@ -10888,7 +10839,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>182</v>
@@ -11000,7 +10951,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>183</v>
@@ -11114,7 +11065,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>184</v>
@@ -11230,7 +11181,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>185</v>
@@ -11342,7 +11293,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>188</v>
@@ -11456,7 +11407,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>192</v>
@@ -11479,16 +11430,16 @@
         <v>20</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>313</v>
+        <v>194</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>314</v>
+        <v>195</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11557,7 +11508,7 @@
         <v>20</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>315</v>
+        <v>20</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>20</v>
@@ -11568,7 +11519,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>196</v>
@@ -11680,7 +11631,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>200</v>
@@ -11792,7 +11743,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>201</v>
@@ -11906,7 +11857,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>202</v>
@@ -12022,7 +11973,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>203</v>
@@ -12136,7 +12087,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>209</v>
@@ -12250,7 +12201,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>214</v>
@@ -12362,7 +12313,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>218</v>
@@ -12474,7 +12425,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>219</v>
@@ -12588,7 +12539,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>220</v>
@@ -12704,7 +12655,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>221</v>
@@ -12816,7 +12767,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>226</v>
@@ -12930,7 +12881,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>230</v>
@@ -13042,7 +12993,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>233</v>
@@ -13154,7 +13105,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>235</v>
@@ -13266,7 +13217,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>238</v>
@@ -13378,7 +13329,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>241</v>
@@ -13490,7 +13441,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>245</v>
@@ -13602,7 +13553,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>246</v>
@@ -13716,7 +13667,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>247</v>
@@ -13832,7 +13783,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>248</v>
@@ -13944,7 +13895,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>251</v>
@@ -14056,7 +14007,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>254</v>
@@ -14170,7 +14121,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>258</v>
@@ -14284,7 +14235,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>262</v>
@@ -14398,13 +14349,13 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>174</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>20</v>
@@ -14512,7 +14463,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>182</v>
@@ -14624,7 +14575,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>183</v>
@@ -14738,7 +14689,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>184</v>
@@ -14854,7 +14805,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>185</v>
@@ -14966,7 +14917,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>188</v>
@@ -15080,7 +15031,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>192</v>
@@ -15103,16 +15054,16 @@
         <v>20</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>350</v>
+        <v>194</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>351</v>
+        <v>195</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15181,7 +15132,7 @@
         <v>20</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>352</v>
+        <v>20</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>20</v>
@@ -15192,7 +15143,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>196</v>
@@ -15304,7 +15255,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>200</v>
@@ -15416,7 +15367,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>201</v>
@@ -15530,7 +15481,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>202</v>
@@ -15646,7 +15597,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>203</v>
@@ -15760,7 +15711,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>209</v>
@@ -15874,7 +15825,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>214</v>
@@ -15986,7 +15937,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>218</v>
@@ -16098,7 +16049,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>219</v>
@@ -16212,7 +16163,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>220</v>
@@ -16328,7 +16279,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>221</v>
@@ -16440,7 +16391,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>226</v>
@@ -16554,7 +16505,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>230</v>
@@ -16666,7 +16617,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>233</v>
@@ -16778,7 +16729,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>235</v>
@@ -16890,7 +16841,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>238</v>
@@ -17002,7 +16953,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>241</v>
@@ -17114,7 +17065,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>245</v>
@@ -17226,7 +17177,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>246</v>
@@ -17340,7 +17291,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>247</v>
@@ -17456,7 +17407,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>248</v>
@@ -17568,7 +17519,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>251</v>
@@ -17680,7 +17631,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>254</v>
@@ -17794,7 +17745,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>258</v>
@@ -17908,7 +17859,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>262</v>
@@ -18022,13 +17973,13 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>174</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>20</v>
@@ -18136,7 +18087,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>182</v>
@@ -18248,7 +18199,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>183</v>
@@ -18362,7 +18313,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>184</v>
@@ -18478,7 +18429,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>185</v>
@@ -18590,7 +18541,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>188</v>
@@ -18704,14 +18655,14 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>386</v>
+        <v>20</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
@@ -18727,20 +18678,18 @@
         <v>20</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>388</v>
+        <v>194</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N151" s="2"/>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
         <v>20</v>
@@ -18804,10 +18753,10 @@
         <v>20</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>391</v>
+        <v>20</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>392</v>
+        <v>20</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>20</v>
@@ -18818,7 +18767,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>196</v>
@@ -18930,7 +18879,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>200</v>
@@ -19042,7 +18991,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>201</v>
@@ -19156,7 +19105,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>202</v>
@@ -19272,7 +19221,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>203</v>
@@ -19386,7 +19335,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>209</v>
@@ -19500,7 +19449,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>214</v>
@@ -19612,7 +19561,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>218</v>
@@ -19724,7 +19673,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>219</v>
@@ -19838,7 +19787,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>220</v>
@@ -19954,7 +19903,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>221</v>
@@ -20066,7 +20015,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>226</v>
@@ -20180,7 +20129,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>230</v>
@@ -20292,7 +20241,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>233</v>
@@ -20404,7 +20353,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>235</v>
@@ -20516,7 +20465,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>238</v>
@@ -20628,7 +20577,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>241</v>
@@ -20740,7 +20689,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>245</v>
@@ -20852,7 +20801,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>246</v>
@@ -20966,7 +20915,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>247</v>
@@ -21082,7 +21031,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>248</v>
@@ -21194,7 +21143,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>251</v>
@@ -21306,7 +21255,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>254</v>
@@ -21420,7 +21369,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>258</v>
@@ -21534,7 +21483,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>262</v>
@@ -21648,10 +21597,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -21674,19 +21623,19 @@
         <v>87</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="O177" t="s" s="2">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>20</v>
@@ -21735,7 +21684,7 @@
         <v>20</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>77</v>

--- a/docs/StructureDefinition-GimbalScreening.xlsx
+++ b/docs/StructureDefinition-GimbalScreening.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T00:44:32-05:00</t>
+    <t>2025-06-01T17:14:01-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-GimbalScreening.xlsx
+++ b/docs/StructureDefinition-GimbalScreening.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T17:14:01-05:00</t>
+    <t>2025-06-01T22:56:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-GimbalScreening.xlsx
+++ b/docs/StructureDefinition-GimbalScreening.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T22:56:50-05:00</t>
+    <t>2025-06-01T23:37:11-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-GimbalScreening.xlsx
+++ b/docs/StructureDefinition-GimbalScreening.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T23:37:11-05:00</t>
+    <t>2025-12-25T11:43:35-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -361,7 +361,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -7099,7 +7099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>266</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>300</v>
       </c>
@@ -14347,7 +14347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
         <v>334</v>
       </c>
@@ -17971,7 +17971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" hidden="true">
+    <row r="145">
       <c r="A145" t="s" s="2">
         <v>368</v>
       </c>
@@ -21713,12 +21713,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN177">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/docs/StructureDefinition-GimbalScreening.xlsx
+++ b/docs/StructureDefinition-GimbalScreening.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T11:43:35-07:00</t>
+    <t>2025-12-29T13:16:13-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-GimbalScreening.xlsx
+++ b/docs/StructureDefinition-GimbalScreening.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T13:16:13-07:00</t>
+    <t>2025-12-29T20:17:52-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-GimbalScreening.xlsx
+++ b/docs/StructureDefinition-GimbalScreening.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T20:17:52-07:00</t>
+    <t>2025-12-29T22:23:37-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-GimbalScreening.xlsx
+++ b/docs/StructureDefinition-GimbalScreening.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T22:23:37-07:00</t>
+    <t>2025-12-29T23:18:22-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-GimbalScreening.xlsx
+++ b/docs/StructureDefinition-GimbalScreening.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T23:18:22-07:00</t>
+    <t>2025-12-30T00:07:25-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-GimbalScreening.xlsx
+++ b/docs/StructureDefinition-GimbalScreening.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-30T13:15:27-07:00</t>
+    <t>2025-12-30T19:11:20-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
